--- a/experiment/experiment 1.xlsx
+++ b/experiment/experiment 1.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.6884738588327217</v>
+        <v>0.716073540050273</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6768576202845368</v>
+        <v>0.7167040033255909</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01161623854818494</v>
+        <v>0.0006304632753179051</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.150727930742389</v>
+        <v>2.718957338954115</v>
       </c>
       <c r="F28" t="n">
-        <v>1.496273993679976</v>
+        <v>1.495521371062374</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.654453937062413</v>
+        <v>-1.223435967891741</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.05885885885885885</v>
+        <v>0.2411411411411412</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2960960960960961</v>
+        <v>0.2744744744744744</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2372372372372372</v>
+        <v>0.03333333333333327</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1117117117117117</v>
+        <v>0.3135135135135135</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5027027027027027</v>
+        <v>0.436036036036036</v>
       </c>
       <c r="G30" t="n">
-        <v>0.390990990990991</v>
+        <v>0.1225225225225225</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.07237123081081229</v>
+        <v>0.2596509196203367</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3487306978893227</v>
+        <v>0.3159546574131327</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2763594670785104</v>
+        <v>0.05630373779279607</v>
       </c>
     </row>
     <row r="32">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.8683168620864057</v>
+        <v>0.8952308795396181</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8800029911191637</v>
+        <v>0.8907307723794162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01168612903275801</v>
+        <v>-0.004500107160201883</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.19758450006317</v>
+        <v>1.142727747757876</v>
       </c>
       <c r="F58" t="n">
-        <v>1.128264803651151</v>
+        <v>1.125366542902044</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.06931969641201885</v>
+        <v>-0.01736120485583204</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2488755622188906</v>
+        <v>0.2388805597201399</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2492920206563385</v>
+        <v>0.3887223055139097</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0004164584374479474</v>
+        <v>0.1498417457937697</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.5787106446776612</v>
+        <v>0.6101949025487257</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5907046476761619</v>
+        <v>0.6186906546726637</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01199400299850073</v>
+        <v>0.00849575212393805</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.332021840494042</v>
+        <v>0.3325685300028599</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3351459911811976</v>
+        <v>0.4487125348629379</v>
       </c>
       <c r="G61" t="n">
-        <v>0.003124150687155547</v>
+        <v>0.116144004860078</v>
       </c>
     </row>
     <row r="62">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DCNv2</t>
+          <t>DCN</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.9089589963281692</v>
+        <v>0.9296175791982485</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9240223311474765</v>
+        <v>0.9204162703024861</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01506333481930722</v>
+        <v>-0.009201308895762428</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.5680329084331103</v>
+        <v>0.4183857027050995</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4256660692778459</v>
+        <v>0.4093436701847778</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1423668391552644</v>
+        <v>-0.009042032520321708</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.2046212879546213</v>
+        <v>0.03778778778778779</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0477977977977978</v>
+        <v>0.1431431431431431</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1568234901568235</v>
+        <v>0.1053553553553553</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.3928928928928929</v>
+        <v>0.05655655655655656</v>
       </c>
       <c r="F90" t="n">
-        <v>0.07107107107107107</v>
+        <v>0.3263263263263263</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3218218218218218</v>
+        <v>0.2697697697697697</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.2519830058075948</v>
+        <v>0.04251262627091393</v>
       </c>
       <c r="F91" t="n">
-        <v>0.05385651153117521</v>
+        <v>0.189022038588589</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1981264942764195</v>
+        <v>0.1465094123176751</v>
       </c>
     </row>
   </sheetData>
